--- a/data/unchecked/manual_collect/kuwait/KuwaitCaseStatistics_20200226.xlsx
+++ b/data/unchecked/manual_collect/kuwait/KuwaitCaseStatistics_20200226.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\数据\海外\26日\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\数据\海外\kuwait\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9221" uniqueCount="3295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9222" uniqueCount="3296">
   <si>
     <t>统计级别</t>
   </si>
@@ -10288,6 +10288,9 @@
   <si>
     <t>科威特</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.guancha.cn/internation/2020_02_26_538598.shtml</t>
   </si>
 </sst>
 </file>
@@ -10960,10 +10963,10 @@
         <v>3290</v>
       </c>
       <c r="C2" s="22">
-        <v>43886.5</v>
+        <v>43887</v>
       </c>
       <c r="D2" s="22">
-        <v>43887.5</v>
+        <v>43888</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>3294</v>
@@ -10972,12 +10975,12 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="23">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="M2" s="20">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N2" s="21"/>
       <c r="O2" s="20"/>
@@ -10988,12 +10991,14 @@
       <c r="U2" s="24"/>
       <c r="V2" s="25"/>
       <c r="W2" s="22">
-        <v>43887.431944444441</v>
+        <v>43888.431944444441</v>
       </c>
       <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
+      <c r="Y2" s="25" t="s">
+        <v>3295</v>
+      </c>
       <c r="Z2" s="22">
-        <v>43887.598611111112</v>
+        <v>43888.848611111112</v>
       </c>
       <c r="AA2" s="19" t="s">
         <v>3291</v>
@@ -11041,6 +11046,9 @@
       <formula1>INDIRECT($G3)</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="Y2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
